--- a/pm2024/pmtest.xlsx
+++ b/pm2024/pmtest.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Program" sheetId="1" state="visible" r:id="rId2"/>
@@ -184,13 +184,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -216,15 +220,15 @@
   </sheetPr>
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="100.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="20.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="20.64"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -242,50 +246,50 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -305,15 +309,15 @@
   </sheetPr>
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="20.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="20.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="60.66"/>
   </cols>
   <sheetData>

--- a/pm2024/pmtest.xlsx
+++ b/pm2024/pmtest.xlsx
@@ -184,21 +184,25 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -221,35 +225,36 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="I19" activeCellId="0" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="100.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="20.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="100.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="20.64"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="1" width="8.86"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -313,7 +318,7 @@
       <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
@@ -322,25 +327,25 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>13</v>
       </c>
     </row>

--- a/pm2024/pmtest.xlsx
+++ b/pm2024/pmtest.xlsx
@@ -222,13 +222,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I19" activeCellId="0" sqref="I19"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="100.67"/>
@@ -264,38 +264,29 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-    </row>
+    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -318,7 +309,7 @@
       <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>

--- a/pm2024/pmtest.xlsx
+++ b/pm2024/pmtest.xlsx
@@ -225,7 +225,7 @@
   <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -309,7 +309,7 @@
       <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>

--- a/pm2024/pmtest.xlsx
+++ b/pm2024/pmtest.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Program" sheetId="1" state="visible" r:id="rId2"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="1156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="1158">
   <si>
     <t xml:space="preserve">Session ID</t>
   </si>
@@ -1900,7 +1900,10 @@
     <t xml:space="preserve">7</t>
   </si>
   <si>
-    <t xml:space="preserve">Latest results from the CUORE experiment</t>
+    <t xml:space="preserve">An awesome poster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INFN – Pisa</t>
   </si>
   <si>
     <t xml:space="preserve">36</t>
@@ -2128,10 +2131,13 @@
     <t xml:space="preserve">408</t>
   </si>
   <si>
-    <t xml:space="preserve">An imaging detector for Liquid scintillator experiments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cicero</t>
+    <t xml:space="preserve">Another awesome poster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baldini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University and INFN – Pisa</t>
   </si>
   <si>
     <t xml:space="preserve">18</t>
@@ -3624,15 +3630,15 @@
   </sheetPr>
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="100.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="20.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="20.65"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3797,11 +3803,11 @@
       <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="20.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="20.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="60.66"/>
   </cols>
   <sheetData>
@@ -3830,7 +3836,7 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>166461</v>
@@ -3839,21 +3845,21 @@
         <v>1</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>166479</v>
@@ -3862,21 +3868,21 @@
         <v>2</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>166522</v>
@@ -3885,21 +3891,21 @@
         <v>3</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>166488</v>
@@ -3908,21 +3914,21 @@
         <v>4</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>166495</v>
@@ -3931,13 +3937,13 @@
         <v>6</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>63</v>
@@ -3945,7 +3951,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>166520</v>
@@ -3954,21 +3960,21 @@
         <v>5</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>166528</v>
@@ -3977,13 +3983,13 @@
         <v>7</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>271</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="G8" s="0" t="s">
         <v>73</v>
@@ -3991,7 +3997,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>166523</v>
@@ -4000,21 +4006,21 @@
         <v>8</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>409</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>166570</v>
@@ -4023,13 +4029,13 @@
         <v>9</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="G10" s="0" t="s">
         <v>63</v>
@@ -4037,7 +4043,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>166578</v>
@@ -4046,21 +4052,21 @@
         <v>10</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>166569</v>
@@ -4069,21 +4075,21 @@
         <v>11</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>166734</v>
@@ -4092,13 +4098,13 @@
         <v>12</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>61</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="G13" s="0" t="s">
         <v>127</v>
@@ -4106,7 +4112,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>166637</v>
@@ -4115,21 +4121,21 @@
         <v>13</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>166648</v>
@@ -4138,13 +4144,13 @@
         <v>14</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>405</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="G15" s="0" t="s">
         <v>63</v>
@@ -4152,7 +4158,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>166676</v>
@@ -4161,21 +4167,21 @@
         <v>15</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>166715</v>
@@ -4184,21 +4190,21 @@
         <v>16</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>166692</v>
@@ -4207,13 +4213,13 @@
         <v>17</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="G18" s="0" t="s">
         <v>499</v>
@@ -4221,7 +4227,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>166694</v>
@@ -4230,13 +4236,13 @@
         <v>18</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>235</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="G19" s="0" t="s">
         <v>113</v>
@@ -4244,7 +4250,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>166709</v>
@@ -4253,21 +4259,21 @@
         <v>19</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>166717</v>
@@ -4276,21 +4282,21 @@
         <v>20</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>166751</v>
@@ -4299,13 +4305,13 @@
         <v>1</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="G22" s="0" t="s">
         <v>63</v>
@@ -4313,7 +4319,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>166777</v>
@@ -4322,21 +4328,21 @@
         <v>2</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="E23" s="0" t="s">
         <v>302</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>166789</v>
@@ -4345,13 +4351,13 @@
         <v>3</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="E24" s="0" t="s">
         <v>235</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="G24" s="0" t="s">
         <v>127</v>
@@ -4359,7 +4365,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>166819</v>
@@ -4368,13 +4374,13 @@
         <v>4</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="E25" s="0" t="s">
         <v>106</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="G25" s="0" t="s">
         <v>63</v>
@@ -4382,7 +4388,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>166527</v>
@@ -4391,21 +4397,21 @@
         <v>5</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="E26" s="0" t="s">
         <v>604</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>166610</v>
@@ -4414,21 +4420,21 @@
         <v>6</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>166512</v>
@@ -4437,13 +4443,13 @@
         <v>7</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="G28" s="0" t="s">
         <v>73</v>
@@ -4451,7 +4457,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>166526</v>
@@ -4460,13 +4466,13 @@
         <v>8</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="G29" s="0" t="s">
         <v>63</v>
@@ -4474,7 +4480,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>166530</v>
@@ -4483,13 +4489,13 @@
         <v>9</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="G30" s="0" t="s">
         <v>63</v>
@@ -4497,7 +4503,7 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>166602</v>
@@ -4506,13 +4512,13 @@
         <v>10</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="G31" s="0" t="s">
         <v>113</v>
@@ -4520,7 +4526,7 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>166605</v>
@@ -4529,13 +4535,13 @@
         <v>11</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="G32" s="0" t="s">
         <v>152</v>
@@ -4543,7 +4549,7 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>166614</v>
@@ -4552,21 +4558,21 @@
         <v>12</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>166618</v>
@@ -4575,13 +4581,13 @@
         <v>13</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="G34" s="0" t="s">
         <v>499</v>
@@ -4589,7 +4595,7 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>166620</v>
@@ -4598,13 +4604,13 @@
         <v>14</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="E35" s="0" t="s">
         <v>179</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="G35" s="0" t="s">
         <v>537</v>
@@ -4612,7 +4618,7 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>166621</v>
@@ -4621,21 +4627,21 @@
         <v>15</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>166632</v>
@@ -4644,21 +4650,21 @@
         <v>16</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>166649</v>
@@ -4667,13 +4673,13 @@
         <v>17</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="G38" s="0" t="s">
         <v>152</v>
@@ -4681,7 +4687,7 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>166672</v>
@@ -4690,21 +4696,21 @@
         <v>19</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>166677</v>
@@ -4713,21 +4719,21 @@
         <v>20</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>166680</v>
@@ -4736,13 +4742,13 @@
         <v>1</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="G41" s="0" t="s">
         <v>441</v>
@@ -4750,7 +4756,7 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>166718</v>
@@ -4759,21 +4765,21 @@
         <v>2</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>166720</v>
@@ -4782,7 +4788,7 @@
         <v>3</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="E43" s="0" t="s">
         <v>170</v>
@@ -4796,7 +4802,7 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>166742</v>
@@ -4805,13 +4811,13 @@
         <v>4</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
       <c r="G44" s="0" t="s">
         <v>113</v>
@@ -4819,7 +4825,7 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>166752</v>
@@ -4828,21 +4834,21 @@
         <v>5</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>166761</v>
@@ -4851,21 +4857,21 @@
         <v>6</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>166772</v>
@@ -4874,21 +4880,21 @@
         <v>7</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>1121</v>
+        <v>1123</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>166786</v>
@@ -4897,13 +4903,13 @@
         <v>8</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="E48" s="0" t="s">
         <v>302</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="G48" s="0" t="s">
         <v>98</v>
@@ -4911,7 +4917,7 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>166815</v>
@@ -4920,21 +4926,21 @@
         <v>9</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="E49" s="0" t="s">
         <v>240</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>166816</v>
@@ -4943,13 +4949,13 @@
         <v>10</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="G50" s="0" t="s">
         <v>63</v>
@@ -4957,7 +4963,7 @@
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>166817</v>
@@ -4966,13 +4972,13 @@
         <v>11</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="G51" s="0" t="s">
         <v>63</v>
@@ -4980,7 +4986,7 @@
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>167826</v>
@@ -4989,21 +4995,21 @@
         <v>12</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>167837</v>
@@ -5012,21 +5018,21 @@
         <v>13</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>1142</v>
+        <v>1144</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>1143</v>
+        <v>1145</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>170164</v>
@@ -5035,13 +5041,13 @@
         <v>14</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>1144</v>
+        <v>1146</v>
       </c>
       <c r="E54" s="0" t="s">
         <v>409</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>1145</v>
+        <v>1147</v>
       </c>
       <c r="G54" s="0" t="s">
         <v>63</v>
@@ -5049,7 +5055,7 @@
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>1146</v>
+        <v>1148</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>170518</v>
@@ -5058,21 +5064,21 @@
         <v>15</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>1148</v>
+        <v>1150</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>1149</v>
+        <v>1151</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>171826</v>
@@ -5081,7 +5087,7 @@
         <v>16</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
       <c r="E56" s="0" t="s">
         <v>566</v>
@@ -5095,7 +5101,7 @@
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>171965</v>
@@ -5104,16 +5110,16 @@
         <v>17</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
     </row>
   </sheetData>
@@ -5138,11 +5144,11 @@
       <selection pane="topLeft" activeCell="G19" activeCellId="0" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="20.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="20.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="60.66"/>
   </cols>
   <sheetData>
@@ -5628,11 +5634,11 @@
       <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="20.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="20.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="60.66"/>
   </cols>
   <sheetData>
@@ -6049,11 +6055,11 @@
       <selection pane="topLeft" activeCell="C38" activeCellId="0" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="20.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="20.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="60.66"/>
   </cols>
   <sheetData>
@@ -7183,11 +7189,11 @@
       <selection pane="topLeft" activeCell="E27" activeCellId="0" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="20.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="20.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="60.66"/>
   </cols>
   <sheetData>
@@ -7673,11 +7679,11 @@
       <selection pane="topLeft" activeCell="G21" activeCellId="0" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="20.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="20.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="60.66"/>
   </cols>
   <sheetData>
@@ -8186,11 +8192,11 @@
       <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="20.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="20.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="60.66"/>
   </cols>
   <sheetData>
@@ -8442,15 +8448,15 @@
   </sheetPr>
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="20.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="20.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="60.66"/>
   </cols>
   <sheetData>
@@ -8491,18 +8497,18 @@
         <v>623</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>620</v>
+        <v>390</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>621</v>
+        <v>391</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>499</v>
+        <v>624</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>166486</v>
@@ -8511,21 +8517,21 @@
         <v>2</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>166545</v>
@@ -8534,13 +8540,13 @@
         <v>3</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>63</v>
@@ -8548,7 +8554,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>166557</v>
@@ -8557,21 +8563,21 @@
         <v>4</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>166566</v>
@@ -8580,21 +8586,21 @@
         <v>5</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>179</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>166600</v>
@@ -8603,13 +8609,13 @@
         <v>6</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="G7" s="0" t="s">
         <v>113</v>
@@ -8617,7 +8623,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>166603</v>
@@ -8626,13 +8632,13 @@
         <v>7</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="G8" s="0" t="s">
         <v>368</v>
@@ -8640,7 +8646,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>166624</v>
@@ -8649,13 +8655,13 @@
         <v>8</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="G9" s="0" t="s">
         <v>451</v>
@@ -8663,7 +8669,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>166628</v>
@@ -8672,7 +8678,7 @@
         <v>19</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>235</v>
@@ -8686,7 +8692,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>166636</v>
@@ -8695,13 +8701,13 @@
         <v>10</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="G11" s="0" t="s">
         <v>108</v>
@@ -8709,7 +8715,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>166640</v>
@@ -8718,21 +8724,21 @@
         <v>11</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>166668</v>
@@ -8741,21 +8747,21 @@
         <v>9</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>474</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>166682</v>
@@ -8764,13 +8770,13 @@
         <v>13</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="G14" s="0" t="s">
         <v>63</v>
@@ -8778,7 +8784,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>166705</v>
@@ -8787,13 +8793,13 @@
         <v>14</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="G15" s="0" t="s">
         <v>299</v>
@@ -8801,7 +8807,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>166743</v>
@@ -8810,13 +8816,13 @@
         <v>12</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>235</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="G16" s="0" t="s">
         <v>368</v>
@@ -8824,7 +8830,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>166814</v>
@@ -8833,13 +8839,13 @@
         <v>16</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="G17" s="0" t="s">
         <v>88</v>
@@ -8847,7 +8853,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>166497</v>
@@ -8856,21 +8862,21 @@
         <v>17</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>155</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>166733</v>
@@ -8879,13 +8885,13 @@
         <v>18</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="G19" s="0" t="s">
         <v>499</v>
@@ -8893,7 +8899,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>166496</v>
@@ -8902,13 +8908,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="G20" s="0" t="s">
         <v>73</v>
@@ -8916,7 +8922,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>166725</v>
@@ -8925,13 +8931,13 @@
         <v>20</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="G21" s="0" t="s">
         <v>113</v>
@@ -8939,7 +8945,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>166783</v>
@@ -8948,21 +8954,21 @@
         <v>1</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>111</v>
+        <v>645</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>108</v>
+        <v>702</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>166468</v>
@@ -8971,13 +8977,13 @@
         <v>2</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="E23" s="0" t="s">
         <v>140</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="G23" s="0" t="s">
         <v>299</v>
@@ -8985,7 +8991,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>166494</v>
@@ -8994,21 +9000,21 @@
         <v>3</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>166509</v>
@@ -9017,21 +9023,21 @@
         <v>4</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>166531</v>
@@ -9040,21 +9046,21 @@
         <v>5</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>166532</v>
@@ -9063,13 +9069,13 @@
         <v>6</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="E27" s="0" t="s">
         <v>559</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="G27" s="0" t="s">
         <v>167</v>
@@ -9077,7 +9083,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>166559</v>
@@ -9086,21 +9092,21 @@
         <v>7</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="E28" s="0" t="s">
         <v>571</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>166564</v>
@@ -9109,13 +9115,13 @@
         <v>9</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="E29" s="0" t="s">
         <v>235</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="G29" s="0" t="s">
         <v>368</v>
@@ -9123,7 +9129,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>166565</v>
@@ -9132,21 +9138,21 @@
         <v>8</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>166606</v>
@@ -9155,13 +9161,13 @@
         <v>10</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="G31" s="0" t="s">
         <v>432</v>
@@ -9169,7 +9175,7 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>166658</v>
@@ -9178,13 +9184,13 @@
         <v>11</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="G32" s="0" t="s">
         <v>356</v>
@@ -9192,7 +9198,7 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>166667</v>
@@ -9201,13 +9207,13 @@
         <v>12</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="E33" s="0" t="s">
         <v>235</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="G33" s="0" t="s">
         <v>368</v>
@@ -9215,7 +9221,7 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>166671</v>
@@ -9224,21 +9230,21 @@
         <v>13</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="E34" s="0" t="s">
         <v>235</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>166684</v>
@@ -9247,21 +9253,21 @@
         <v>14</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>166730</v>
@@ -9270,13 +9276,13 @@
         <v>15</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="E36" s="0" t="s">
         <v>302</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="G36" s="0" t="s">
         <v>98</v>
@@ -9284,7 +9290,7 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>166736</v>
@@ -9293,21 +9299,21 @@
         <v>16</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>166739</v>
@@ -9316,13 +9322,13 @@
         <v>17</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="G38" s="0" t="s">
         <v>499</v>
@@ -9330,7 +9336,7 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>166749</v>
@@ -9339,21 +9345,21 @@
         <v>18</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>166766</v>
@@ -9362,13 +9368,13 @@
         <v>19</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="E40" s="0" t="s">
         <v>125</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="G40" s="0" t="s">
         <v>63</v>
@@ -9376,7 +9382,7 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>167683</v>
@@ -9385,7 +9391,7 @@
         <v>20</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="E41" s="0" t="s">
         <v>150</v>
@@ -9394,12 +9400,12 @@
         <v>151</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>172067</v>
@@ -9408,18 +9414,18 @@
         <v>2</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>172078</v>
@@ -9428,16 +9434,16 @@
         <v>3</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
     </row>
   </sheetData>
@@ -9462,12 +9468,12 @@
       <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="20.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="20.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="60.66"/>
   </cols>
   <sheetData>
@@ -9496,7 +9502,7 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>166521</v>
@@ -9505,13 +9511,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>299</v>
@@ -9519,7 +9525,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>166508</v>
@@ -9528,13 +9534,13 @@
         <v>2</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>488</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>113</v>
@@ -9542,7 +9548,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>166540</v>
@@ -9551,21 +9557,21 @@
         <v>3</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>166541</v>
@@ -9574,21 +9580,21 @@
         <v>4</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>166561</v>
@@ -9597,21 +9603,21 @@
         <v>5</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="F6" s="0" t="s">
         <v>341</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>166619</v>
@@ -9620,21 +9626,21 @@
         <v>6</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>166623</v>
@@ -9643,13 +9649,13 @@
         <v>7</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="G8" s="0" t="s">
         <v>537</v>
@@ -9657,7 +9663,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>166630</v>
@@ -9666,13 +9672,13 @@
         <v>8</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="G9" s="0" t="s">
         <v>432</v>
@@ -9680,7 +9686,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>166675</v>
@@ -9689,21 +9695,21 @@
         <v>10</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>166711</v>
@@ -9712,21 +9718,21 @@
         <v>11</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>166755</v>
@@ -9735,21 +9741,21 @@
         <v>12</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>179</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>166757</v>
@@ -9758,21 +9764,21 @@
         <v>13</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>168287</v>
@@ -9781,21 +9787,21 @@
         <v>15</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>171990</v>
@@ -9804,21 +9810,21 @@
         <v>16</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>166567</v>
@@ -9827,21 +9833,21 @@
         <v>17</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>166538</v>
@@ -9850,13 +9856,13 @@
         <v>18</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="G17" s="0" t="s">
         <v>432</v>
@@ -9864,7 +9870,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>166678</v>
@@ -9873,21 +9879,21 @@
         <v>19</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>167682</v>
@@ -9896,13 +9902,13 @@
         <v>20</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>405</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="G19" s="0" t="s">
         <v>63</v>
@@ -9910,7 +9916,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>166529</v>
@@ -9919,21 +9925,21 @@
         <v>1</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>166472</v>
@@ -9942,21 +9948,21 @@
         <v>2</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>166571</v>
@@ -9965,21 +9971,21 @@
         <v>3</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>166575</v>
@@ -9988,13 +9994,13 @@
         <v>4</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="E23" s="0" t="s">
         <v>474</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="G23" s="0" t="s">
         <v>147</v>
@@ -10002,7 +10008,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>166590</v>
@@ -10011,21 +10017,21 @@
         <v>5</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>166598</v>
@@ -10034,21 +10040,21 @@
         <v>6</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="E25" s="0" t="s">
         <v>488</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>166629</v>
@@ -10057,13 +10063,13 @@
         <v>7</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="G26" s="0" t="s">
         <v>537</v>
@@ -10071,7 +10077,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>166650</v>
@@ -10080,21 +10086,21 @@
         <v>8</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>166657</v>
@@ -10103,13 +10109,13 @@
         <v>9</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="E28" s="0" t="s">
         <v>335</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="G28" s="0" t="s">
         <v>53</v>
@@ -10117,7 +10123,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>166687</v>
@@ -10126,21 +10132,21 @@
         <v>10</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>166691</v>
@@ -10149,7 +10155,7 @@
         <v>11</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="E30" s="0" t="s">
         <v>390</v>
@@ -10163,7 +10169,7 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>166708</v>
@@ -10172,13 +10178,13 @@
         <v>12</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="G31" s="0" t="s">
         <v>63</v>
@@ -10186,7 +10192,7 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>166719</v>
@@ -10195,21 +10201,21 @@
         <v>13</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>166744</v>
@@ -10218,13 +10224,13 @@
         <v>14</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="E33" s="0" t="s">
         <v>324</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="G33" s="0" t="s">
         <v>152</v>
@@ -10232,7 +10238,7 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>166746</v>
@@ -10241,21 +10247,21 @@
         <v>15</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>166753</v>
@@ -10264,13 +10270,13 @@
         <v>16</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="E35" s="0" t="s">
         <v>271</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="G35" s="0" t="s">
         <v>299</v>
@@ -10278,7 +10284,7 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>166779</v>
@@ -10287,13 +10293,13 @@
         <v>17</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="G36" s="0" t="s">
         <v>299</v>
@@ -10301,7 +10307,7 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>166818</v>
@@ -10310,13 +10316,13 @@
         <v>18</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="E37" s="0" t="s">
         <v>106</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="G37" s="0" t="s">
         <v>63</v>
@@ -10324,7 +10330,7 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>167482</v>
@@ -10333,21 +10339,21 @@
         <v>19</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>167812</v>
@@ -10356,13 +10362,13 @@
         <v>20</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="G39" s="0" t="s">
         <v>152</v>
@@ -10370,7 +10376,7 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>171332</v>
@@ -10379,21 +10385,21 @@
         <v>14</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>171955</v>
@@ -10402,16 +10408,16 @@
         <v>9</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
     </row>
   </sheetData>
